--- a/Datos/Anuario2024/060701_RedBancaria.xlsx
+++ b/Datos/Anuario2024/060701_RedBancaria.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Tomas\AplAnu2024\System\Xls_Cast\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="9720" windowHeight="12000" tabRatio="815"/>
   </bookViews>
   <sheets>
-    <sheet name="0" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="1 map1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="0" sheetId="39" r:id="rId1"/>
+    <sheet name="1" sheetId="40" r:id="rId2"/>
+    <sheet name="1 map1" sheetId="89" r:id="rId3"/>
+    <sheet name="2" sheetId="88" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_R1_2">#REF!</definedName>
@@ -35,104 +41,244 @@
     <definedName name="_R5_2">#REF!</definedName>
     <definedName name="_R5_3">#REF!</definedName>
     <definedName name="_R5_6">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 map1'!$A$1:$G$29</definedName>
     <definedName name="suma">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'1 map1'!$A$1:$G$29</definedName>
   </definedNames>
-  <calcPr calcId="152511" fullCalcOnLoad="1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+  <si>
+    <t>Oficinas bancarias por 10.000 hab</t>
+  </si>
+  <si>
+    <t>Altres</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>València</t>
+  </si>
+  <si>
+    <t>10. Quatre Carreres</t>
+  </si>
+  <si>
+    <t>11. Poblats Marítims</t>
+  </si>
+  <si>
+    <t>12. Camins al Grau</t>
+  </si>
+  <si>
+    <t>13. Algirós</t>
+  </si>
+  <si>
+    <t>14. Benimaclet</t>
+  </si>
+  <si>
+    <t>15. Rascanya</t>
+  </si>
+  <si>
+    <t>16. Benicalap</t>
+  </si>
+  <si>
+    <t>17. Pobles del Nord</t>
+  </si>
+  <si>
+    <t>19. Pobles del Sud</t>
+  </si>
+  <si>
+    <t>Banca March S.A.</t>
+  </si>
+  <si>
+    <t>Caixabank S.A.</t>
+  </si>
+  <si>
+    <t>Banco Santander S.A.</t>
+  </si>
+  <si>
+    <t>Bankinter S.A.</t>
+  </si>
+  <si>
+    <t>Banco Bilbao Vizcaya Argentaria S.A.</t>
+  </si>
+  <si>
+    <t>Deutsche Bank SAE</t>
+  </si>
+  <si>
+    <t>Ibercaja Banco S.A.</t>
+  </si>
+  <si>
+    <t>Kutxabank S.A.</t>
+  </si>
+  <si>
+    <t>18. Pobles de l'Oest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Ciutat Vella</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3. Extramurs</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4. Campanar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8. Patraix</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9. Jesús</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2. l'Eixample</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5. la Saïdia</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6. el Pla del Real</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. l'Olivereta</t>
+  </si>
+  <si>
+    <t>Banco Pichincha España S.A.</t>
+  </si>
+  <si>
+    <t>RED BANCARIA</t>
+  </si>
+  <si>
+    <t>Fuente: Registro de oficinas de entidades supervisadas de Banco de España</t>
+  </si>
+  <si>
+    <t>Cajamar Caja Rural Sdad.Coop.de Cto.</t>
+  </si>
+  <si>
+    <t>Banco de Sabadell S.A.</t>
+  </si>
+  <si>
+    <t>Caixa Popular C.R.Sdad.Coop.de Cred.V.</t>
+  </si>
+  <si>
+    <t>Unicaja Banco S.A.</t>
+  </si>
+  <si>
+    <t>Abanca Corporación Bancaria S.A.</t>
+  </si>
+  <si>
+    <t>Caja de Ahorros y Monte de Piedad de Ontinyent</t>
+  </si>
+  <si>
+    <t>Arquia Bank S.A.</t>
+  </si>
+  <si>
+    <t>1. Oficinas bancarias por distritos. 2024</t>
+  </si>
+  <si>
+    <t>2. Número de oficinas de las principales entidades bancarias. 2024</t>
+  </si>
+  <si>
+    <t>Nota: Población a 01/01/2024</t>
+  </si>
+  <si>
+    <t>Eurocaja Rural, S.C.C.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="MS Sans Serif"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="10"/>
     </font>
     <font>
+      <i/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <i val="1"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -167,101 +313,93 @@
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="32">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="4">
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="5"/>
+    <cellStyle name="Normal 4" xfId="6"/>
     <cellStyle name="Normal_6.2" xfId="3"/>
     <cellStyle name="Normal_Hoja1" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="5"/>
-    <cellStyle name="Normal 4" xfId="6"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -330,8 +468,73 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FF800000"/>
+      <color rgb="FF663300"/>
+      <color rgb="FFC0C0C0"/>
+      <color rgb="FFFFDCB9"/>
+      <color rgb="FF660000"/>
+      <color rgb="FFFFE397"/>
+    </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="6115050" cy="6115051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,692 +823,569 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja38">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>RED BANCARIA</t>
-        </is>
+    <row r="1" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja39">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="18.5703125" customWidth="1" style="2" min="1" max="1"/>
-    <col width="15.7109375" customWidth="1" style="3" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" style="2" min="3" max="3"/>
-    <col width="11.42578125" customWidth="1" style="2" min="4" max="4"/>
-    <col width="11.42578125" customWidth="1" style="2" min="5" max="16384"/>
+    <col min="1" max="1" width="18.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>1. Oficinas bancarias por distritos. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n"/>
-      <c r="C1" s="6" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="6" t="n"/>
-      <c r="B2" s="8" t="n"/>
-      <c r="C2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="25.5" customHeight="1" s="2">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C3" s="10" t="inlineStr">
-        <is>
-          <t>Oficinas bancarias por 10.000 hab</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A4" s="24" t="inlineStr">
-        <is>
-          <t>València</t>
-        </is>
-      </c>
-      <c r="B4" s="27" t="n">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+    </row>
+    <row r="3" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="27">
         <v>258</v>
       </c>
-      <c r="C4" s="32">
+      <c r="C4" s="28" t="e">
         <f>B4*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D4" s="23" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 1. Ciutat Vella</t>
-        </is>
-      </c>
-      <c r="B5" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11">
         <v>41</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="12" t="e">
         <f>B5*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 2. l'Eixample</t>
-        </is>
-      </c>
-      <c r="B6" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="13">
         <v>32</v>
       </c>
-      <c r="C6" s="34">
+      <c r="C6" s="14" t="e">
         <f>B6*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D6" s="1" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 3. Extramurs</t>
-        </is>
-      </c>
-      <c r="B7" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="11">
         <v>20</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="12" t="e">
         <f>B7*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D7" s="1" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 4. Campanar</t>
-        </is>
-      </c>
-      <c r="B8" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="13">
         <v>17</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="14" t="e">
         <f>B8*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D8" s="1" t="n"/>
-    </row>
-    <row r="9" ht="15" customHeight="1" s="2">
-      <c r="A9" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 5. la Saïdia</t>
-        </is>
-      </c>
-      <c r="B9" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="12" t="e">
         <f>B9*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D9" s="1" t="n"/>
-    </row>
-    <row r="10" ht="15" customHeight="1" s="2">
-      <c r="A10" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 6. el Pla del Real</t>
-        </is>
-      </c>
-      <c r="B10" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="13">
         <v>24</v>
       </c>
-      <c r="C10" s="34">
+      <c r="C10" s="14" t="e">
         <f>B10*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D10" s="1" t="n"/>
-    </row>
-    <row r="11" ht="15" customHeight="1" s="2">
-      <c r="A11" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 7. l'Olivereta</t>
-        </is>
-      </c>
-      <c r="B11" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="11">
         <v>7</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="12" t="e">
         <f>B11*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D11" s="1" t="n"/>
-    </row>
-    <row r="12" ht="15" customHeight="1" s="2">
-      <c r="A12" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 8. Patraix</t>
-        </is>
-      </c>
-      <c r="B12" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="13">
         <v>11</v>
       </c>
-      <c r="C12" s="34">
+      <c r="C12" s="14" t="e">
         <f>B12*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D12" s="1" t="n"/>
-    </row>
-    <row r="13" ht="15" customHeight="1" s="2">
-      <c r="A13" s="19" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 9. Jesús</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="12" t="e">
         <f>B13*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D13" s="1" t="n"/>
-    </row>
-    <row r="14" ht="15" customHeight="1" s="2">
-      <c r="A14" s="15" t="inlineStr">
-        <is>
-          <t>10. Quatre Carreres</t>
-        </is>
-      </c>
-      <c r="B14" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="13">
         <v>18</v>
       </c>
-      <c r="C14" s="34">
+      <c r="C14" s="14" t="e">
         <f>B14*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D14" s="1" t="n"/>
-    </row>
-    <row r="15" ht="15" customHeight="1" s="2">
-      <c r="A15" s="19" t="inlineStr">
-        <is>
-          <t>11. Poblats Marítims</t>
-        </is>
-      </c>
-      <c r="B15" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="11">
         <v>16</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="12" t="e">
         <f>B15*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D15" s="1" t="n"/>
-    </row>
-    <row r="16" ht="15" customHeight="1" s="2">
-      <c r="A16" s="15" t="inlineStr">
-        <is>
-          <t>12. Camins al Grau</t>
-        </is>
-      </c>
-      <c r="B16" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="14" t="e">
         <f>B16*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D16" s="1" t="n"/>
-    </row>
-    <row r="17" ht="15" customHeight="1" s="2">
-      <c r="A17" s="19" t="inlineStr">
-        <is>
-          <t>13. Algirós</t>
-        </is>
-      </c>
-      <c r="B17" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="11">
         <v>11</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="12" t="e">
         <f>B17*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D17" s="1" t="n"/>
-    </row>
-    <row r="18" ht="15" customHeight="1" s="2">
-      <c r="A18" s="15" t="inlineStr">
-        <is>
-          <t>14. Benimaclet</t>
-        </is>
-      </c>
-      <c r="B18" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="13">
         <v>6</v>
       </c>
-      <c r="C18" s="34">
+      <c r="C18" s="14" t="e">
         <f>B18*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D18" s="1" t="n"/>
-    </row>
-    <row r="19" ht="15" customHeight="1" s="2">
-      <c r="A19" s="19" t="inlineStr">
-        <is>
-          <t>15. Rascanya</t>
-        </is>
-      </c>
-      <c r="B19" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="11">
         <v>11</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C19" s="12" t="e">
         <f>B19*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D19" s="1" t="n"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" s="2">
-      <c r="A20" s="15" t="inlineStr">
-        <is>
-          <t>16. Benicalap</t>
-        </is>
-      </c>
-      <c r="B20" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="13">
         <v>8</v>
       </c>
-      <c r="C20" s="34">
+      <c r="C20" s="14" t="e">
         <f>B20*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D20" s="1" t="n"/>
-    </row>
-    <row r="21" ht="15" customHeight="1" s="2">
-      <c r="A21" s="19" t="inlineStr">
-        <is>
-          <t>17. Pobles del Nord</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="11">
         <v>0</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="29" t="e">
         <f>B21*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D21" s="1" t="n"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" s="2">
-      <c r="A22" s="15" t="inlineStr">
-        <is>
-          <t>18. Pobles de l'Oest</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13">
         <v>3</v>
       </c>
-      <c r="C22" s="34">
+      <c r="C22" s="14" t="e">
         <f>B22*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D22" s="1" t="n"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="2">
-      <c r="A23" s="19" t="inlineStr">
-        <is>
-          <t>19. Pobles del Sud</t>
-        </is>
-      </c>
-      <c r="B23" s="11" t="n">
+        <v>#REF!</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="11">
         <v>5</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="12" t="e">
         <f>B23*10000/#REF!</f>
-        <v/>
-      </c>
-      <c r="D23" s="1" t="n"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" s="2">
-      <c r="A24" s="7" t="inlineStr">
-        <is>
-          <t>Nota: Población a 01/01/2024</t>
-        </is>
-      </c>
-      <c r="B24" s="16" t="n"/>
-      <c r="C24" s="36" t="n"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" s="2">
-      <c r="A25" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Registro de oficinas de entidades supervisadas de Banco de España</t>
-        </is>
+        <v>#REF!</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja40">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja41">
-    <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="42.85546875" customWidth="1" style="2" min="1" max="1"/>
-    <col width="11.140625" customWidth="1" style="3" min="2" max="2"/>
-    <col width="11.42578125" customWidth="1" style="2" min="3" max="16384"/>
+    <col min="1" max="1" width="42.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" s="2">
-      <c r="A1" s="31" t="inlineStr">
-        <is>
-          <t>2. Número de oficinas de las principales entidades bancarias. 2024</t>
-        </is>
-      </c>
-      <c r="B1" s="8" t="n"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" s="2">
-      <c r="A2" s="6" t="n"/>
-      <c r="B2" s="8" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" s="2">
-      <c r="A3" s="9" t="n"/>
-      <c r="B3" s="10" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="2">
-      <c r="A4" s="25" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B4" s="26" t="n">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="8"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="26">
         <v>258</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" s="2">
-      <c r="A5" s="21" t="inlineStr">
-        <is>
-          <t>Caixabank S.A.</t>
-        </is>
-      </c>
-      <c r="B5" s="20" t="n">
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="20">
         <v>58</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="2">
-      <c r="A6" s="22" t="inlineStr">
-        <is>
-          <t>Banco Santander S.A.</t>
-        </is>
-      </c>
-      <c r="B6" s="18" t="n">
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="18">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="2">
-      <c r="A7" s="21" t="inlineStr">
-        <is>
-          <t>Banco Bilbao Vizcaya Argentaria S.A.</t>
-        </is>
-      </c>
-      <c r="B7" s="20" t="n">
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="20">
         <v>28</v>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1" s="2">
-      <c r="A8" s="22" t="inlineStr">
-        <is>
-          <t>Cajamar Caja Rural Sdad.Coop.de Cto.</t>
-        </is>
-      </c>
-      <c r="B8" s="18" t="n">
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="18">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" s="2">
-      <c r="A9" s="21" t="inlineStr">
-        <is>
-          <t>Banco de Sabadell S.A.</t>
-        </is>
-      </c>
-      <c r="B9" s="20" t="n">
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="20">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" s="2">
-      <c r="A10" s="22" t="inlineStr">
-        <is>
-          <t>Caixa Popular C.R.Sdad.Coop.de Cred.V.</t>
-        </is>
-      </c>
-      <c r="B10" s="18" t="n">
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="18">
         <v>16</v>
       </c>
     </row>
-    <row r="11" ht="15" customHeight="1" s="2">
-      <c r="A11" s="21" t="inlineStr">
-        <is>
-          <t>Ibercaja Banco S.A.</t>
-        </is>
-      </c>
-      <c r="B11" s="20" t="n">
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="20">
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" s="2">
-      <c r="A12" s="22" t="inlineStr">
-        <is>
-          <t>Bankinter S.A.</t>
-        </is>
-      </c>
-      <c r="B12" s="18" t="n">
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="18">
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" s="2">
-      <c r="A13" s="21" t="inlineStr">
-        <is>
-          <t>Kutxabank S.A.</t>
-        </is>
-      </c>
-      <c r="B13" s="20" t="n">
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="20">
         <v>9</v>
       </c>
     </row>
-    <row r="14" ht="15" customHeight="1" s="2">
-      <c r="A14" s="22" t="inlineStr">
-        <is>
-          <t>Unicaja Banco S.A.</t>
-        </is>
-      </c>
-      <c r="B14" s="18" t="n">
+    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="18">
         <v>5</v>
       </c>
     </row>
-    <row r="15" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A15" s="21" t="inlineStr">
-        <is>
-          <t>Banca March S.A.</t>
-        </is>
-      </c>
-      <c r="B15" s="20" t="n">
+    <row r="15" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20">
         <v>4</v>
       </c>
     </row>
-    <row r="16" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A16" s="22" t="inlineStr">
-        <is>
-          <t>Abanca Corporación Bancaria S.A.</t>
-        </is>
-      </c>
-      <c r="B16" s="18" t="n">
+    <row r="16" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="17" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A17" s="21" t="inlineStr">
-        <is>
-          <t>Caja de Ahorros y Monte de Piedad de Ontinyent</t>
-        </is>
-      </c>
-      <c r="B17" s="20" t="n">
+    <row r="17" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A18" s="22" t="inlineStr">
-        <is>
-          <t>Deutsche Bank SAE</t>
-        </is>
-      </c>
-      <c r="B18" s="18" t="n">
+    <row r="18" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A19" s="21" t="inlineStr">
-        <is>
-          <t>Arquia Bank S.A.</t>
-        </is>
-      </c>
-      <c r="B19" s="20" t="n">
+    <row r="19" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="20" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A20" s="22" t="inlineStr">
-        <is>
-          <t>Banco Pichincha España S.A.</t>
-        </is>
-      </c>
-      <c r="B20" s="18" t="n">
+    <row r="20" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="21" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A21" s="21" t="inlineStr">
-        <is>
-          <t>Eurocaja Rural, S.C.C.</t>
-        </is>
-      </c>
-      <c r="B21" s="20" t="n">
+    <row r="21" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="20">
         <v>2</v>
       </c>
     </row>
-    <row r="22" ht="15" customFormat="1" customHeight="1" s="4">
-      <c r="A22" s="22" t="inlineStr">
-        <is>
-          <t>Altres</t>
-        </is>
+    <row r="22" spans="1:2" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
+        <v>1</v>
       </c>
       <c r="B22" s="30">
         <f>B4-SUM(B5:B21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1" s="2">
-      <c r="A23" s="7" t="inlineStr">
-        <is>
-          <t>Fuente: Registro de oficinas de entidades supervisadas de Banco de España</t>
-        </is>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.3937007874015748" right="0.3937007874015748" top="0.5905511811023622" bottom="0.5905511811023622" header="0" footer="0"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <phoneticPr fontId="0" type="noConversion"/>
+  <pageMargins left="0.39370078740157477" right="0.39370078740157477" top="0.59055118110236215" bottom="0.59055118110236215" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9 Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9 Ajuntament de València</oddHeader>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
+    <oddHeader>&amp;L&amp;"Times New Roman,Normal"&amp;9Oficina d'Estadística&amp;R&amp;"Times New Roman,Normal"&amp;9Ajuntament de València</oddHeader>
   </headerFooter>
 </worksheet>
 </file>